--- a/Data/Lynx2.xlsx
+++ b/Data/Lynx2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SNyimbili\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/RTCZ/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26DE7881-4C34-4679-B936-69EED309B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{26DE7881-4C34-4679-B936-69EED309B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975E4577-E407-4C8F-BDC8-80AE043FCCCE}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D46AA05-D30D-4E0E-A5D1-98F6DB6AEBA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>Facility</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Michael Chilufya Sata Hospital</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A88478-D30C-4E17-8297-2CF9A3E1BB3D}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,10 +494,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -501,8 +507,8 @@
       <c r="B2">
         <v>37.5</v>
       </c>
-      <c r="C2">
-        <v>75</v>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -512,8 +518,8 @@
       <c r="B3">
         <v>16.666666666666664</v>
       </c>
-      <c r="C3">
-        <v>66.666666666666657</v>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -523,8 +529,8 @@
       <c r="B4">
         <v>35.294117647058826</v>
       </c>
-      <c r="C4">
-        <v>62.5</v>
+      <c r="C4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -534,8 +540,8 @@
       <c r="B5">
         <v>24.242424242424242</v>
       </c>
-      <c r="C5">
-        <v>55.26315789473685</v>
+      <c r="C5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -545,8 +551,8 @@
       <c r="B6">
         <v>24.324324324324326</v>
       </c>
-      <c r="C6">
-        <v>48.717948717948715</v>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -556,8 +562,8 @@
       <c r="B7">
         <v>25.675675675675674</v>
       </c>
-      <c r="C7">
-        <v>39.898989898989903</v>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -567,8 +573,8 @@
       <c r="B8">
         <v>29.341317365269461</v>
       </c>
-      <c r="C8">
-        <v>38.862559241706165</v>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,8 +584,8 @@
       <c r="B9">
         <v>25.352112676056336</v>
       </c>
-      <c r="C9">
-        <v>35.483870967741936</v>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -589,8 +595,8 @@
       <c r="B10">
         <v>21.311475409836063</v>
       </c>
-      <c r="C10">
-        <v>34.516129032258064</v>
+      <c r="C10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -600,8 +606,8 @@
       <c r="B11">
         <v>26.5625</v>
       </c>
-      <c r="C11">
-        <v>33.636363636363633</v>
+      <c r="C11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -611,8 +617,8 @@
       <c r="B12">
         <v>33.333333333333329</v>
       </c>
-      <c r="C12">
-        <v>33.333333333333329</v>
+      <c r="C12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -622,8 +628,8 @@
       <c r="B13">
         <v>6.3636363636363633</v>
       </c>
-      <c r="C13">
-        <v>25.672877846790893</v>
+      <c r="C13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -633,8 +639,8 @@
       <c r="B14">
         <v>19.565217391304348</v>
       </c>
-      <c r="C14">
-        <v>25.301204819277107</v>
+      <c r="C14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -644,8 +650,8 @@
       <c r="B15">
         <v>13.494809688581316</v>
       </c>
-      <c r="C15">
-        <v>23.0514096185738</v>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -655,8 +661,8 @@
       <c r="B16">
         <v>13.380281690140844</v>
       </c>
-      <c r="C16">
-        <v>22.471910112359549</v>
+      <c r="C16" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -666,8 +672,8 @@
       <c r="B17">
         <v>19.565217391304348</v>
       </c>
-      <c r="C17">
-        <v>22.397476340694006</v>
+      <c r="C17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -677,8 +683,8 @@
       <c r="B18">
         <v>16.233766233766232</v>
       </c>
-      <c r="C18">
-        <v>21.036585365853657</v>
+      <c r="C18" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -688,8 +694,8 @@
       <c r="B19">
         <v>15.625</v>
       </c>
-      <c r="C19">
-        <v>20</v>
+      <c r="C19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -699,8 +705,8 @@
       <c r="B20">
         <v>1.6149068322981366</v>
       </c>
-      <c r="C20">
-        <v>18.5378590078329</v>
+      <c r="C20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,8 +716,8 @@
       <c r="B21">
         <v>10.344827586206897</v>
       </c>
-      <c r="C21">
-        <v>16.842105263157894</v>
+      <c r="C21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -721,8 +727,8 @@
       <c r="B22">
         <v>7.5425790754257909</v>
       </c>
-      <c r="C22">
-        <v>16.486486486486488</v>
+      <c r="C22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -732,8 +738,8 @@
       <c r="B23">
         <v>8.8068181818181817</v>
       </c>
-      <c r="C23">
-        <v>15.894039735099339</v>
+      <c r="C23" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -743,8 +749,8 @@
       <c r="B24">
         <v>10.576923076923077</v>
       </c>
-      <c r="C24">
-        <v>15.837104072398189</v>
+      <c r="C24" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -754,8 +760,8 @@
       <c r="B25">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C25">
-        <v>14.634146341463413</v>
+      <c r="C25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -765,8 +771,8 @@
       <c r="B26">
         <v>10.194174757281553</v>
       </c>
-      <c r="C26">
-        <v>13.412228796844181</v>
+      <c r="C26" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -776,8 +782,294 @@
       <c r="B27">
         <v>8.9552238805970141</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>62.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>55.26315789473685</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>48.717948717948715</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>39.898989898989903</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>38.862559241706165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>35.483870967741936</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>34.516129032258064</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>12</v>
+      </c>
+      <c r="B37">
+        <v>33.636363636363633</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>25.672877846790893</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40">
+        <v>25.301204819277107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41">
+        <v>23.0514096185738</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>22.471910112359549</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>22.397476340694006</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>21.036585365853657</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>18.5378590078329</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47">
+        <v>16.842105263157894</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>16.486486486486488</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49">
+        <v>15.894039735099339</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>15.837104072398189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51">
+        <v>14.634146341463413</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>13.412228796844181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
